--- a/asv-lidar/eval_results/Summary.xlsx
+++ b/asv-lidar/eval_results/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/hoangnam_tran_utas_edu_au/Documents/Documents/PhD/ASV-Path-Replanning/asv-lidar/eval_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="11_F25DC773A252ABDACC10487E119E75C25BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D586ED19-1616-43EB-A9D4-E8FED54660E3}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="11_F25DC773A252ABDACC10487E119E75C25BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{043A9264-E172-42A4-84A9-F7C9B670EB8F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -184,7 +184,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -192,11 +192,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -209,6 +238,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -826,7 +885,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -860,322 +919,322 @@
       <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="6">
         <v>0.5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="7">
         <v>0.79</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="6">
         <v>0.5</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="7">
         <v>0.67</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9">
         <v>0.6</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="10">
         <v>0.64</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="1">
+      <c r="G4" s="8"/>
+      <c r="H4" s="9">
         <v>0.6</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="10">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9">
         <v>0.7</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="10">
         <v>0.49</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="1">
+      <c r="G5" s="8"/>
+      <c r="H5" s="9">
         <v>0.7</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="10">
         <v>0.61</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9">
         <v>0.8</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="10">
         <v>0.81</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="1">
+      <c r="G6" s="8"/>
+      <c r="H6" s="9">
         <v>0.8</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="10">
         <v>0.54</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="1">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12">
         <v>0.9</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="13">
         <v>0.71</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="1">
+      <c r="G7" s="11"/>
+      <c r="H7" s="12">
         <v>0.9</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="13">
         <v>0.66</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="6">
         <v>0.5</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="7">
         <v>0.94</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="6">
         <v>0.5</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="7">
         <v>0.97</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9">
         <v>0.6</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="10">
         <v>0.9</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="1">
+      <c r="G9" s="8"/>
+      <c r="H9" s="9">
         <v>0.6</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="10">
         <v>0.9</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9">
         <v>0.7</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="10">
         <v>0.96</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="1">
+      <c r="G10" s="8"/>
+      <c r="H10" s="9">
         <v>0.7</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="10">
         <v>0.97</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9">
         <v>0.8</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="10">
         <v>0.9</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="1">
+      <c r="G11" s="8"/>
+      <c r="H11" s="9">
         <v>0.8</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="10">
         <v>0.94</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="1">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12">
         <v>0.9</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="13">
         <v>0.89</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="1">
+      <c r="G12" s="11"/>
+      <c r="H12" s="12">
         <v>0.9</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="13">
         <v>0.91</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="12" t="s">
         <v>44</v>
       </c>
     </row>
